--- a/medicine/Autisme/Franck_Ramus/Franck_Ramus.xlsx
+++ b/medicine/Autisme/Franck_Ramus/Franck_Ramus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franck Ramus, né en 1972, est un ingénieur français, chercheur en sciences cognitives et directeur de recherche au CNRS. Il dirige l'équipe « Développement cognitif et pathologie » au sein du laboratoire de sciences cognitives et psycholinguistique, rattaché à l'École normale supérieure de Paris.
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Franck Ramus est ancien élève de l'École polytechnique (promotion 1992)[1]. Il est titulaire d'un diplôme d'études approfondies, avec un mémoire rédigé sous la direction de Jacques Mehler[2]. 
-Le 27 avril 2006, il soutient sa thèse d'habilitation à diriger des recherches intitulée Origines cognitives, cérébrales et génétiques des troubles de l’acquisition du langage[3].
-Parcours professionnel
-Il est directeur de recherches au CNRS et professeur attaché à l'École normale supérieure[4]. Il travaille au Laboratoire de sciences cognitives et psycholinguistique, Institut d'étude de la cognition, École normale supérieure à Paris, au sein duquel il dirige l'équipe « Développement cognitif et pathologie ». Il est également codirecteur d'un master en sciences cognitives (ENS, EHESS, université Paris-Descartes). 
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Ramus est ancien élève de l'École polytechnique (promotion 1992). Il est titulaire d'un diplôme d'études approfondies, avec un mémoire rédigé sous la direction de Jacques Mehler. 
+Le 27 avril 2006, il soutient sa thèse d'habilitation à diriger des recherches intitulée Origines cognitives, cérébrales et génétiques des troubles de l’acquisition du langage.
 </t>
         </is>
       </c>
@@ -543,14 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2016, le sociologue français Stanislas Morel cite Franck Ramus comme « l'un des chercheurs français les plus impliqués dans la recherche en NC [Neurosciences cognitives] sur les TSA [autisme] »[5]. Ses premiers travaux ont porté sur la typologie rythmique des langues[6]. D'après le biologiste Yves Christen, les travaux de Ramus avec ses collègues de l'École des hautes études en sciences sociales, publiés en 2000, tendent à montrer que les propriétés langagières sont communes aux êtres humains et aux singes[7]. Ses recherches plus récentes portent sur le développement cognitif de l'enfant, ses troubles (dyslexie développementale, trouble spécifique du langage, autisme), ses bases cognitives et cérébrales, et ses déterminants génétiques et environnementaux.
-En collaboration avec Anne-Lise Giraud, directrice d'une équipe Inserm à l’École normale supérieure, et Katia Lehongre, chercheuse au sein de son équipe, il décrit une seule et unique anomalie dans le cortex auditif gauche des dyslexiques qui pourrait être à l'origine de trois différents symptômes. Ce trouble toucherait environ 5 % des Français selon Franck Ramus[8].  
-Franck Ramus a rejoint le comité de parrainage scientifique de l'Association française pour l'information scientifique (AFIS) et de la revue Science et pseudo-sciences[9].
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est directeur de recherches au CNRS et professeur attaché à l'École normale supérieure. Il travaille au Laboratoire de sciences cognitives et psycholinguistique, Institut d'étude de la cognition, École normale supérieure à Paris, au sein duquel il dirige l'équipe « Développement cognitif et pathologie ». Il est également codirecteur d'un master en sciences cognitives (ENS, EHESS, université Paris-Descartes). 
 </t>
         </is>
       </c>
@@ -576,20 +595,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prises de position</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franck Ramus déclare que la France a un profond retard en matière d'éducation fondée sur des preuves[10]. 
-Opposition à la psychanalyse
-La sociologue française Céline Borelle cite Franck Ramus comme un membre important du KOllectif du 7 janvier, initialement créé en soutien à la diffusion du reportage critique de la psychanalyse Le Mur, et qui a publié un manifeste en faveur d'une psychologie et d'une psychiatrie fondées sur les preuves scientifiques[11]. Durant un entretien accordé en 2012 au Cercle Psy, il affirme que la psychanalyse maltraite non-seulement les personnes autistes, mais aussi des personnes concernées par d'autres problématiques[11].
-En octobre 2019, il signe la pétition intitulée « Pourquoi les psychanalystes doivent être exclus des tribunaux »[12].
-En 2023, il s'oppose aux déclarations de la psychanalyste Caroline Goldman au sujet du « Time Out » (envoi des enfants en isolement dans leur chambre pour les punir)[13].
-Autisme
-Ramus affirme le caractère neurodéveloppemental de l'autisme, reconnu au niveau international, pour en expliquer les causes[14],[15]. Considérant l'autisme davantage comme une différence, il argumente en 2017 sur France Culture que les classifications des maladies, qu'il qualifie d'« athéoriques », ont des limites, qu'il y a un continuum entre le normal et le pathologique, le caractère purement statistique de la notion de maladie ou de trouble, l'absence de seuil qualitatif entre les personnes en bonne santé et malades, et que les stéréotypies des non-autistes sont, elles, considérées comme naturelles et socialement acceptables[16]. Il critique la prédominance de la psychanalyse, en particulier pour la prise en charge de l'autisme en France[17],[18],[19]. Il analyse l'épidémiologie de l'autisme comme résultant surtout d'un meilleur diagnostic, réfutant l'existence d'une « épidémie »[20],[21].
-Haut potentiel intellectuel
-Franck Ramus s'oppose aussi au discours selon lequel une majorité d'enfants intellectuellement précoces sont en échec scolaire, ou ont des difficultés psychologiques[22]. Avec d'autres chercheurs, il critique l'étude selon laquelle des chercheurs américains affirment qu'un gène lié à la production de matière blanche dans le cerveau influencerait à hauteur de 46 % la réussite dans l'apprentissage d'une langue étrangère[23]. Franck Ramus affirme que « l’observation des différences individuelles n’enlève rien à l’intuition d’une forme d’intelligence générale qui s’appliquerait à de nombreux domaines de la vie »[24].
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le sociologue français Stanislas Morel cite Franck Ramus comme « l'un des chercheurs français les plus impliqués dans la recherche en NC [Neurosciences cognitives] sur les TSA [autisme] ». Ses premiers travaux ont porté sur la typologie rythmique des langues. D'après le biologiste Yves Christen, les travaux de Ramus avec ses collègues de l'École des hautes études en sciences sociales, publiés en 2000, tendent à montrer que les propriétés langagières sont communes aux êtres humains et aux singes. Ses recherches plus récentes portent sur le développement cognitif de l'enfant, ses troubles (dyslexie développementale, trouble spécifique du langage, autisme), ses bases cognitives et cérébrales, et ses déterminants génétiques et environnementaux.
+En collaboration avec Anne-Lise Giraud, directrice d'une équipe Inserm à l’École normale supérieure, et Katia Lehongre, chercheuse au sein de son équipe, il décrit une seule et unique anomalie dans le cortex auditif gauche des dyslexiques qui pourrait être à l'origine de trois différents symptômes. Ce trouble toucherait environ 5 % des Français selon Franck Ramus.  
+Franck Ramus a rejoint le comité de parrainage scientifique de l'Association française pour l'information scientifique (AFIS) et de la revue Science et pseudo-sciences.
 </t>
         </is>
       </c>
@@ -615,12 +630,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Ramus déclare que la France a un profond retard en matière d'éducation fondée sur des preuves. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Opposition à la psychanalyse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sociologue française Céline Borelle cite Franck Ramus comme un membre important du KOllectif du 7 janvier, initialement créé en soutien à la diffusion du reportage critique de la psychanalyse Le Mur, et qui a publié un manifeste en faveur d'une psychologie et d'une psychiatrie fondées sur les preuves scientifiques. Durant un entretien accordé en 2012 au Cercle Psy, il affirme que la psychanalyse maltraite non-seulement les personnes autistes, mais aussi des personnes concernées par d'autres problématiques.
+En octobre 2019, il signe la pétition intitulée « Pourquoi les psychanalystes doivent être exclus des tribunaux ».
+En 2023, il s'oppose aux déclarations de la psychanalyste Caroline Goldman au sujet du « Time Out » (envoi des enfants en isolement dans leur chambre pour les punir).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramus affirme le caractère neurodéveloppemental de l'autisme, reconnu au niveau international, pour en expliquer les causes,. Considérant l'autisme davantage comme une différence, il argumente en 2017 sur France Culture que les classifications des maladies, qu'il qualifie d'« athéoriques », ont des limites, qu'il y a un continuum entre le normal et le pathologique, le caractère purement statistique de la notion de maladie ou de trouble, l'absence de seuil qualitatif entre les personnes en bonne santé et malades, et que les stéréotypies des non-autistes sont, elles, considérées comme naturelles et socialement acceptables. Il critique la prédominance de la psychanalyse, en particulier pour la prise en charge de l'autisme en France. Il analyse l'épidémiologie de l'autisme comme résultant surtout d'un meilleur diagnostic, réfutant l'existence d'une « épidémie »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prises de position</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Haut potentiel intellectuel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Ramus s'oppose aussi au discours selon lequel une majorité d'enfants intellectuellement précoces sont en échec scolaire, ou ont des difficultés psychologiques. Avec d'autres chercheurs, il critique l'étude selon laquelle des chercheurs américains affirment qu'un gène lié à la production de matière blanche dans le cerveau influencerait à hauteur de 46 % la réussite dans l'apprentissage d'une langue étrangère. Franck Ramus affirme que « l’observation des différences individuelles n’enlève rien à l’intuition d’une forme d’intelligence générale qui s’appliquerait à de nombreux domaines de la vie ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publications universitaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Franck Ramus a publié plusieurs travaux universitaires[25], dont :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Franck Ramus a publié plusieurs travaux universitaires, dont :
 Franck Ramus et al, Theories of developmental dyslexia: insights from a multiple case study of dyslexic adults, Brain, Volume 126, Numéro 4, avril 2003, pages 841–865 en ligne;
 Franck Ramus, Marina Nespor et Jacques Mehler, Correlates of linguistic rhythm in the speech signal, Cognition, 73(3), décembre 1999, p. 265-292, doi:10.1016/S0010-0277(00)00101-3 ;
 Developmental dyslexia: specific phonological deficit or general sensorimotor dysfunction ?, Current Opinion in Neurobiology, april 2003; 13(2):212-8, doi: 10.1016/s0959-4388(03)00035-7
@@ -628,77 +791,118 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Expertise</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Membre du comité de parrainage de l'Association française pour l'information scientifique (2012 –)[26]
-Membre du Scientific Advisory Committee  Dyslexia International[27] (2010 –)[28]
-Membre du Board of Associate Editors Cognitive Neuropsychology, (2010 –)[29]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Membre du comité de parrainage de l'Association française pour l'information scientifique (2012 –)
+Membre du Scientific Advisory Committee  Dyslexia International (2010 –)
+Membre du Board of Associate Editors Cognitive Neuropsychology, (2010 –)
 Membre du comité scientifique de la Fédération française des dys (2006 –)
-Membre du comité scientifique du Réseau TAP Ile-de-France Sud[30](2006 –)
+Membre du comité scientifique du Réseau TAP Ile-de-France Sud(2006 –)
 Membre de la Developmental and pediatric neurology Faculty (2006–2011)
-Membre de l'Editorial Board of Cognition[31] (2002–2006)
-Membre du conseil scientifique de l'Éducation nationale (2018)[32]
+Membre de l'Editorial Board of Cognition (2002–2006)
+Membre du conseil scientifique de l'Éducation nationale (2018)
 Membre du conseil scientifique de l'AFEAAS
-Expertise pour diverses revues scientifiques[33]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Expertise pour diverses revues scientifiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publications grand public</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Ouvrages
-Alain Bentolila (dir.), Bruno Germain (dir.), Catherine Jousselme et Franck Ramus, Apprendre à lire pour les nuls, Éd. First, coll. « Pour les nuls », aout 2016 (ISBN 978-2754090278).
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alain Bentolila (dir.), Bruno Germain (dir.), Catherine Jousselme et Franck Ramus, Apprendre à lire pour les nuls, Éd. First, coll. « Pour les nuls », aout 2016 (ISBN 978-2754090278).
 « Les Enfants sauvages à la lumière des sciences cognitives », dans D. Lévy-Bertherat (dir.) et M. Lévêque (dir.), Enfants sauvages : Représentations et savoirs, Paris, Hermann, 2017.
-Quelles questions pose l'autisme, et comment y répondre ?, Paris, Dunod, 3 mars 2016, 271 p. (ISBN 978-2-10-071307-3, lire en ligne).
-Articles
-Nicolas Gauvrit et Franck Ramus, « La Légende noire des surdoués », La Recherche,‎ mars 2017 (lire en ligne, consulté le 9 août 2020).
+Quelles questions pose l'autisme, et comment y répondre ?, Paris, Dunod, 3 mars 2016, 271 p. (ISBN 978-2-10-071307-3, lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications grand public</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nicolas Gauvrit et Franck Ramus, « La Légende noire des surdoués », La Recherche,‎ mars 2017 (lire en ligne, consulté le 9 août 2020).
 « Comprendre le système de publication scientifique », Science et pseudo-sciences,‎ avril 2014 (lire en ligne, consulté le 25 juin 2017).
 « Définir et diagnostiquer la dyslexie », Mon Cerveau à l'école,‎ 13 novembre 2012 (lire en ligne, consulté le 25 juin 2017).
 « De l’origine biologique de la dyslexie », Psychologie et Éducation,‎ 2005, p. 81-96 (lire en ligne).
@@ -712,39 +916,75 @@
 « Peut-il y avoir une exception française en médecine ? », Le Monde.fr,‎ 26 septembre 2012 (ISSN 1950-6244, lire en ligne, consulté le 25 juin 2017).
 « Peut-on parler d'une épidémie d’autisme ? », The Conversation,‎ 14 mai 2017 (lire en ligne, consulté le 25 juin 2017).
 « Les Traitements de la dyslexie », Mon Cerveau à l'école,‎ 13 novembre 2012 (lire en ligne, consulté le 25 juin 2017).
-Anne-Marie Chartier et Franck Ramus, « Troubles dans l’apprentissage de la lecture », XYZep, revue du Centre Alain Savary - Éducation prioritaire - ifé,‎ mars 2008 (lire en ligne, consulté le 7 novembre 2020).
-Préfaces
-Pierre Fourneret et David Da Fonseca (préf. Franck Ramus), Les Enfants Dys, Elsevier Masson, 2018.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Anne-Marie Chartier et Franck Ramus, « Troubles dans l’apprentissage de la lecture », XYZep, revue du Centre Alain Savary - Éducation prioritaire - ifé,‎ mars 2008 (lire en ligne, consulté le 7 novembre 2020).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications grand public</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pierre Fourneret et David Da Fonseca (préf. Franck Ramus), Les Enfants Dys, Elsevier Masson, 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franck_Ramus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2022 : Jeffrey L. Elman Prize[34].</t>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2022 : Jeffrey L. Elman Prize.</t>
         </is>
       </c>
     </row>
